--- a/datasets/korean_cars.xlsx
+++ b/datasets/korean_cars.xlsx
@@ -395,7 +395,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>배출량(CO2)</t>
+          <t>CO2배출량</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
